--- a/trunk/histogram.xlsx
+++ b/trunk/histogram.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Word Graph" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -935,11 +936,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="140161024"/>
-        <c:axId val="140164480"/>
+        <c:axId val="98105600"/>
+        <c:axId val="80355328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140161024"/>
+        <c:axId val="98105600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,7 +950,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140164480"/>
+        <c:crossAx val="80355328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -957,7 +958,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140164480"/>
+        <c:axId val="80355328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -973,14 +974,13 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="140161024"/>
+        <c:crossAx val="98105600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3057,11 +3057,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="135122304"/>
-        <c:axId val="68052096"/>
+        <c:axId val="80381824"/>
+        <c:axId val="80383360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="135122304"/>
+        <c:axId val="80381824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3071,7 +3071,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68052096"/>
+        <c:crossAx val="80383360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3079,7 +3079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68052096"/>
+        <c:axId val="80383360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3095,14 +3095,13 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="135122304"/>
+        <c:crossAx val="80381824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3523,11 +3522,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82730368"/>
-        <c:axId val="135136384"/>
+        <c:axId val="80411648"/>
+        <c:axId val="80425728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82730368"/>
+        <c:axId val="80411648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3537,7 +3536,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135136384"/>
+        <c:crossAx val="80425728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3545,7 +3544,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135136384"/>
+        <c:axId val="80425728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3561,14 +3560,13 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="82730368"/>
+        <c:crossAx val="80411648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3613,7 +3611,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3945,11 +3942,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75638272"/>
-        <c:axId val="103493632"/>
+        <c:axId val="97889280"/>
+        <c:axId val="97977088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75638272"/>
+        <c:axId val="97889280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3959,7 +3956,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103493632"/>
+        <c:crossAx val="97977088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3967,7 +3964,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103493632"/>
+        <c:axId val="97977088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3983,14 +3980,13 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="75638272"/>
+        <c:crossAx val="97889280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4035,7 +4031,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4360,11 +4355,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="66932736"/>
-        <c:axId val="66934272"/>
+        <c:axId val="98019584"/>
+        <c:axId val="98025472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66932736"/>
+        <c:axId val="98019584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4374,7 +4369,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66934272"/>
+        <c:crossAx val="98025472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4382,7 +4377,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66934272"/>
+        <c:axId val="98025472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4398,14 +4393,13 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="66932736"/>
+        <c:crossAx val="98019584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8473,7 +8467,7 @@
         <v>5511</v>
       </c>
       <c r="C2" s="1">
-        <f>B2/$B$9</f>
+        <f t="shared" ref="C2:C8" si="0">B2/$B$9</f>
         <v>5.5109999999999999E-2</v>
       </c>
     </row>
@@ -8485,7 +8479,7 @@
         <v>58043</v>
       </c>
       <c r="C3" s="1">
-        <f>B3/$B$9</f>
+        <f t="shared" si="0"/>
         <v>0.58043</v>
       </c>
     </row>
@@ -8497,7 +8491,7 @@
         <v>30657</v>
       </c>
       <c r="C4" s="1">
-        <f>B4/$B$9</f>
+        <f t="shared" si="0"/>
         <v>0.30657000000000001</v>
       </c>
     </row>
@@ -8509,7 +8503,7 @@
         <v>5608</v>
       </c>
       <c r="C5" s="1">
-        <f>B5/$B$9</f>
+        <f t="shared" si="0"/>
         <v>5.6079999999999998E-2</v>
       </c>
     </row>
@@ -8521,7 +8515,7 @@
         <v>170</v>
       </c>
       <c r="C6" s="1">
-        <f>B6/$B$9</f>
+        <f t="shared" si="0"/>
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
@@ -8533,7 +8527,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1">
-        <f>B7/$B$9</f>
+        <f t="shared" si="0"/>
         <v>1E-4</v>
       </c>
     </row>
@@ -8545,7 +8539,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <f>B8/$B$9</f>
+        <f t="shared" si="0"/>
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
@@ -8582,7 +8576,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" ref="C12:C44" si="0">B12/$B$45</f>
+        <f t="shared" ref="C12:C44" si="1">B12/$B$45</f>
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
@@ -8594,7 +8588,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2000000000000001E-4</v>
       </c>
     </row>
@@ -8606,7 +8600,7 @@
         <v>69</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.8999999999999997E-4</v>
       </c>
     </row>
@@ -8618,7 +8612,7 @@
         <v>190</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9E-3</v>
       </c>
     </row>
@@ -8630,7 +8624,7 @@
         <v>466</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.6600000000000001E-3</v>
       </c>
     </row>
@@ -8642,7 +8636,7 @@
         <v>914</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1400000000000006E-3</v>
       </c>
     </row>
@@ -8654,7 +8648,7 @@
         <v>1588</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5879999999999998E-2</v>
       </c>
     </row>
@@ -8666,7 +8660,7 @@
         <v>2619</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6190000000000001E-2</v>
       </c>
     </row>
@@ -8678,7 +8672,7 @@
         <v>3848</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.848E-2</v>
       </c>
     </row>
@@ -8690,7 +8684,7 @@
         <v>5348</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.348E-2</v>
       </c>
     </row>
@@ -8702,7 +8696,7 @@
         <v>7161</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.1609999999999993E-2</v>
       </c>
     </row>
@@ -8714,7 +8708,7 @@
         <v>8481</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.4809999999999997E-2</v>
       </c>
     </row>
@@ -8726,7 +8720,7 @@
         <v>9680</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.6799999999999997E-2</v>
       </c>
     </row>
@@ -8738,7 +8732,7 @@
         <v>9777</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.7769999999999996E-2</v>
       </c>
     </row>
@@ -8750,7 +8744,7 @@
         <v>9676</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.6759999999999999E-2</v>
       </c>
     </row>
@@ -8762,7 +8756,7 @@
         <v>9015</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.0149999999999994E-2</v>
       </c>
     </row>
@@ -8774,7 +8768,7 @@
         <v>7787</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.7869999999999995E-2</v>
       </c>
     </row>
@@ -8786,7 +8780,7 @@
         <v>6453</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.4530000000000004E-2</v>
       </c>
     </row>
@@ -8798,7 +8792,7 @@
         <v>5011</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.0110000000000002E-2</v>
       </c>
     </row>
@@ -8810,7 +8804,7 @@
         <v>3871</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8710000000000001E-2</v>
       </c>
     </row>
@@ -8822,7 +8816,7 @@
         <v>2731</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7310000000000001E-2</v>
       </c>
     </row>
@@ -8834,7 +8828,7 @@
         <v>1919</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9189999999999999E-2</v>
       </c>
     </row>
@@ -8846,7 +8840,7 @@
         <v>1315</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.315E-2</v>
       </c>
     </row>
@@ -8858,7 +8852,7 @@
         <v>857</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5699999999999995E-3</v>
       </c>
     </row>
@@ -8870,7 +8864,7 @@
         <v>535</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.3499999999999997E-3</v>
       </c>
     </row>
@@ -8882,7 +8876,7 @@
         <v>293</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9299999999999999E-3</v>
       </c>
     </row>
@@ -8894,7 +8888,7 @@
         <v>183</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.83E-3</v>
       </c>
     </row>
@@ -8906,7 +8900,7 @@
         <v>95</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.5E-4</v>
       </c>
     </row>
@@ -8918,7 +8912,7 @@
         <v>43</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2999999999999999E-4</v>
       </c>
     </row>
@@ -8930,7 +8924,7 @@
         <v>22</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2000000000000001E-4</v>
       </c>
     </row>
@@ -8942,7 +8936,7 @@
         <v>14</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3999999999999999E-4</v>
       </c>
     </row>
@@ -8954,7 +8948,7 @@
         <v>7</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.9999999999999994E-5</v>
       </c>
     </row>
@@ -8966,7 +8960,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
@@ -8986,8 +8980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="K103" sqref="K103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11702,7 +11696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -11738,7 +11732,7 @@
         <v>1129</v>
       </c>
       <c r="E3" s="1">
-        <f>D3/$D$24</f>
+        <f t="shared" ref="E3:E12" si="0">D3/$D$24</f>
         <v>1.129E-2</v>
       </c>
       <c r="F3">
@@ -11764,21 +11758,21 @@
         <v>4994</v>
       </c>
       <c r="E4" s="1">
-        <f>D4/$D$24</f>
+        <f t="shared" si="0"/>
         <v>4.9939999999999998E-2</v>
       </c>
       <c r="F4">
         <v>3362</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:G15" si="0">F4/$F$24</f>
+        <f t="shared" ref="G4:G15" si="1">F4/$F$24</f>
         <v>3.3619999999999997E-2</v>
       </c>
       <c r="H4">
         <v>9530</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I21" si="1">H4/$H$24</f>
+        <f t="shared" ref="I4:I21" si="2">H4/$H$24</f>
         <v>9.5300000000000003E-3</v>
       </c>
     </row>
@@ -11790,28 +11784,28 @@
         <v>5511</v>
       </c>
       <c r="C5" s="1">
-        <f>B5/$B$24</f>
+        <f t="shared" ref="C5:C11" si="3">B5/$B$24</f>
         <v>5.5109999999999999E-2</v>
       </c>
       <c r="D5">
         <v>10524</v>
       </c>
       <c r="E5" s="1">
-        <f>D5/$D$24</f>
+        <f t="shared" si="0"/>
         <v>0.10524</v>
       </c>
       <c r="F5">
         <v>8420</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.4199999999999997E-2</v>
       </c>
       <c r="H5">
         <v>40746</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0745999999999997E-2</v>
       </c>
     </row>
@@ -11823,28 +11817,28 @@
         <v>58043</v>
       </c>
       <c r="C6" s="1">
-        <f>B6/$B$24</f>
+        <f t="shared" si="3"/>
         <v>0.58043</v>
       </c>
       <c r="D6">
         <v>26826</v>
       </c>
       <c r="E6" s="1">
-        <f>D6/$D$24</f>
+        <f t="shared" si="0"/>
         <v>0.26826</v>
       </c>
       <c r="F6">
         <v>16425</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16425000000000001</v>
       </c>
       <c r="H6">
         <v>119555</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11955499999999999</v>
       </c>
     </row>
@@ -11856,28 +11850,28 @@
         <v>30657</v>
       </c>
       <c r="C7" s="1">
-        <f>B7/$B$24</f>
+        <f t="shared" si="3"/>
         <v>0.30657000000000001</v>
       </c>
       <c r="D7">
         <v>36959</v>
       </c>
       <c r="E7" s="1">
-        <f>D7/$D$24</f>
+        <f t="shared" si="0"/>
         <v>0.36958999999999997</v>
       </c>
       <c r="F7">
         <v>26110</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2611</v>
       </c>
       <c r="H7">
         <v>141059</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.14105899999999999</v>
       </c>
     </row>
@@ -11889,28 +11883,28 @@
         <v>5608</v>
       </c>
       <c r="C8" s="1">
-        <f>B8/$B$24</f>
+        <f t="shared" si="3"/>
         <v>5.6079999999999998E-2</v>
       </c>
       <c r="D8">
         <v>16330</v>
       </c>
       <c r="E8" s="1">
-        <f>D8/$D$24</f>
+        <f t="shared" si="0"/>
         <v>0.1633</v>
       </c>
       <c r="F8">
         <v>24458</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.24457999999999999</v>
       </c>
       <c r="H8">
         <v>105396</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.105396</v>
       </c>
     </row>
@@ -11922,28 +11916,28 @@
         <v>170</v>
       </c>
       <c r="C9" s="1">
-        <f>B9/$B$24</f>
+        <f t="shared" si="3"/>
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="D9">
         <v>2603</v>
       </c>
       <c r="E9" s="1">
-        <f>D9/$D$24</f>
+        <f t="shared" si="0"/>
         <v>2.6030000000000001E-2</v>
       </c>
       <c r="F9">
         <v>13275</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13275000000000001</v>
       </c>
       <c r="H9">
         <v>103148</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.103148</v>
       </c>
     </row>
@@ -11955,28 +11949,28 @@
         <v>10</v>
       </c>
       <c r="C10" s="1">
-        <f>B10/$B$24</f>
+        <f t="shared" si="3"/>
         <v>1E-4</v>
       </c>
       <c r="D10">
         <v>507</v>
       </c>
       <c r="E10" s="1">
-        <f>D10/$D$24</f>
+        <f t="shared" si="0"/>
         <v>5.0699999999999999E-3</v>
       </c>
       <c r="F10">
         <v>5175</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.1749999999999997E-2</v>
       </c>
       <c r="H10">
         <v>125648</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12564800000000001</v>
       </c>
     </row>
@@ -11988,28 +11982,28 @@
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <f>B11/$B$24</f>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D11">
         <v>118</v>
       </c>
       <c r="E11" s="1">
-        <f>D11/$D$24</f>
+        <f t="shared" si="0"/>
         <v>1.1800000000000001E-3</v>
       </c>
       <c r="F11">
         <v>1758</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7579999999999998E-2</v>
       </c>
       <c r="H11">
         <v>125603</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.12560299999999999</v>
       </c>
     </row>
@@ -12022,21 +12016,21 @@
         <v>10</v>
       </c>
       <c r="E12" s="1">
-        <f>D12/$D$24</f>
+        <f t="shared" si="0"/>
         <v>1E-4</v>
       </c>
       <c r="F12">
         <v>498</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.9800000000000001E-3</v>
       </c>
       <c r="H12">
         <v>91479</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.1479000000000005E-2</v>
       </c>
     </row>
@@ -12049,14 +12043,14 @@
         <v>70</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="H13">
         <v>49698</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9697999999999999E-2</v>
       </c>
     </row>
@@ -12068,14 +12062,14 @@
         <v>7</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.9999999999999994E-5</v>
       </c>
       <c r="H14">
         <v>24513</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4513E-2</v>
       </c>
     </row>
@@ -12087,14 +12081,14 @@
         <v>1</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="H15">
         <v>21749</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1749000000000001E-2</v>
       </c>
     </row>
@@ -12107,7 +12101,7 @@
         <v>21186</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1186E-2</v>
       </c>
     </row>
@@ -12119,7 +12113,7 @@
         <v>12788</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2788000000000001E-2</v>
       </c>
     </row>
@@ -12131,7 +12125,7 @@
         <v>4979</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9789999999999999E-3</v>
       </c>
     </row>
@@ -12143,7 +12137,7 @@
         <v>1022</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0219999999999999E-3</v>
       </c>
     </row>
@@ -12155,7 +12149,7 @@
         <v>42</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.1999999999999998E-5</v>
       </c>
     </row>
@@ -12167,7 +12161,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9999999999999999E-6</v>
       </c>
     </row>
